--- a/Tops/statistics/assesment/ass.xlsx
+++ b/Tops/statistics/assesment/ass.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tops\statistics\assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC542F-049B-43A3-A543-F79DC6D42F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159B923-EFAC-44E9-ACCE-9218DA02FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7CB3DC36-E7E0-480B-8971-F973D7857CA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7CB3DC36-E7E0-480B-8971-F973D7857CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Task-2" sheetId="1" r:id="rId1"/>
+    <sheet name="Task-3" sheetId="2" r:id="rId2"/>
+    <sheet name="Task-4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,19 +27,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Company A</t>
   </si>
   <si>
     <t>Company B</t>
+  </si>
+  <si>
+    <t>Covariance</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Group-1</t>
+  </si>
+  <si>
+    <t>Group-2</t>
+  </si>
+  <si>
+    <t>z-Test: Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Known Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P(Z&lt;=z) one-tail</t>
+  </si>
+  <si>
+    <t>z Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(Z&lt;=z) two-tail</t>
+  </si>
+  <si>
+    <t>z Critical two-tail</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>c total</t>
+  </si>
+  <si>
+    <t>r total</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>chi-square</t>
+  </si>
+  <si>
+    <t>0.134&gt;0.05</t>
+  </si>
+  <si>
+    <t>reject ho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +128,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,17 +172,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -204,6 +329,311 @@
           <a:r>
             <a:rPr lang="en-IN"/>
             <a:t> • Interpret the nature of their relationship.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45341053-F6D5-CC6E-8E14-99CF21254EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6756400" y="1574800"/>
+          <a:ext cx="3613150" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Covariance is positive (97.53) means when Company A’s price increases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Company B’s price also increases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Correlation tells direction + strength</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>correlation value is close to 1,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA11A55-E684-61F0-D1A1-0D1F560ABA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="311150"/>
+          <a:ext cx="4965700" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>3. A two-sample z-test is conducted to compare exam scores: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>• Group 1: [85, 88, 92, 87, 90] </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>• Group 2: [78, 80, 75, 82, 76] </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>o Test at 5% significance level. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>o Assume population std. dev = 5 for both groups.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> o Perform the test and state your conclusion</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB25854D-BC6E-93DF-66BE-0F695273A98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="165100"/>
+          <a:ext cx="4578350" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>4. A survey was conducted to check ice cream preference by gender: Chocolate Vanilla Strawberry </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Male 20 15 10 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Female 25 20 30 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>• Perform a Chi-Square Test for Independence. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>• State H₀ and H₁. Interpret your result.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
@@ -511,19 +941,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A9BA5E-B458-403D-BFCB-7516E0E4A71D}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,23 +962,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <f>_xlfn.COVARIANCE.S(A:A,B:B)</f>
+        <v>97.526315789473685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <f>CORREL(A:A,B:B)</f>
+        <v>0.99859572699637911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>48</v>
       </c>
@@ -555,7 +1000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -563,7 +1008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>52</v>
       </c>
@@ -571,7 +1016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>53</v>
       </c>
@@ -579,7 +1024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>55</v>
       </c>
@@ -587,7 +1032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -595,7 +1040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>58</v>
       </c>
@@ -603,7 +1048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>60</v>
       </c>
@@ -611,7 +1056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>62</v>
       </c>
@@ -619,31 +1064,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>64</v>
       </c>
       <c r="B13" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>67</v>
       </c>
       <c r="B15" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>69</v>
       </c>
@@ -689,6 +1143,338 @@
       </c>
       <c r="B21" s="1">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F25827-0DD4-40DE-895C-2C45C0BFD718}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>78</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>89.25</v>
+      </c>
+      <c r="F8" s="7">
+        <v>78.25</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <f>AVERAGE(B2:B6)</f>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3.1112698372208092</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9.31423148990973E-4</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.862846297981946E-3</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F3CB0-02B6-4A7C-B522-4FC846D0D2EB}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)</f>
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <f>E2*B4/E4</f>
+        <v>16.875</v>
+      </c>
+      <c r="C10">
+        <f>E2*C4/E4</f>
+        <v>13.125</v>
+      </c>
+      <c r="D10">
+        <f>E2*D4/E4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>E3*B4/E4</f>
+        <v>28.125</v>
+      </c>
+      <c r="C11">
+        <f>E3*C4/E4</f>
+        <v>21.875</v>
+      </c>
+      <c r="D11">
+        <f>E3*D4/E4</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.CHISQ.TEST(B2:D3,B10:D11)</f>
+        <v>0.1339107145312913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Tops/statistics/assesment/ass.xlsx
+++ b/Tops/statistics/assesment/ass.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tops\statistics\assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159B923-EFAC-44E9-ACCE-9218DA02FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EDD516-E56C-4D9F-AD01-5BF99A51321D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7CB3DC36-E7E0-480B-8971-F973D7857CA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{7CB3DC36-E7E0-480B-8971-F973D7857CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Task-2" sheetId="1" r:id="rId1"/>
     <sheet name="Task-3" sheetId="2" r:id="rId2"/>
     <sheet name="Task-4" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -196,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -205,12 +206,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,6 +635,1455 @@
             <a:rPr lang="en-IN"/>
             <a:t>• State H₀ and H₁. Interpret your result.</a:t>
           </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07777406-080B-2811-6ABA-EA643E97090D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="95250"/>
+          <a:ext cx="8445500" cy="10623550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assessment- Statistics And Probability</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.Correlation vs. Covariance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Covariance</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Covariance measures </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>how two variables change together</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If both increase or decrease together → </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>positive covariance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If one increases while the other decreases → </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>negative covariance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scale-dependent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (units matter), so it's hard to compare across datasets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Correlation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Correlation also measures </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>how two variables move together</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, but it is a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>standardized version</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of covariance.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>It always ranges from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–1 to +1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+1 = perfect positive relation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–1 = perfect negative relation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0 = no relation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Not affected by scale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (unit-free).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In short:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Covariance = raw relationship</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Correlation = scaled relationship </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Null and Alternative Hypothesis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Null Hypothesis (H₀)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The default assumption.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Says </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>there is no effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>no difference</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>no relationship</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Example: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>“The medicine has no effect.”</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alternative Hypothesis (H₁ or Ha)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The opposite of the null hypothesis.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Says </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>there is an effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a difference</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a relationship</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Example: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>“The medicine works.”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In short:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H₀ = nothing happening</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H₁ = something happening</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. p-value and Significance Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p-value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tells you how likely your results are if the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>null hypothesis is true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Small p-value → data is unlikely under H₀ → evidence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>against</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> H₀.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Significance Level (α)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>threshold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> you choose to decide if the p-value is small enough.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Common value: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.05</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (5%).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Decision Rule</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p-value ≤ α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, reject the null hypothesis (H₀).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p-value &gt; α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, fail to reject H₀.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In simple words:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p-value = what your data says</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α = your cutoff for deciding</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1071,9 +2520,9 @@
       <c r="B13" s="1">
         <v>69</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1082,9 +2531,6 @@
       <c r="B14" s="1">
         <v>71</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -1093,9 +2539,9 @@
       <c r="B15" s="1">
         <v>73</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1218,22 +2664,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>85</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>89.25</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>78.25</v>
       </c>
       <c r="H8" s="5"/>
@@ -1243,80 +2689,75 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>3.1112698372208092</v>
       </c>
-      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>9.31423148990973E-4</v>
       </c>
-      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>1.6448536269514715</v>
       </c>
-      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>1.862846297981946E-3</v>
       </c>
-      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>1.9599639845400536</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F3CB0-02B6-4A7C-B522-4FC846D0D2EB}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1481,4 +2922,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF3494A-6A87-4978-ABC1-B53FF834268D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>